--- a/SYS_BROKEN/api/acoes.xlsx
+++ b/SYS_BROKEN/api/acoes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\teste\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\SYS_BROKEN\api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F2FA48-472D-4806-BBB2-5FED9FC99F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7231085B-9AF2-4142-A306-E5AFCDFDB297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{42935D27-1D87-4E55-8841-02199D15408F}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{42935D27-1D87-4E55-8841-02199D15408F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha2" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Símbolo</t>
   </si>
@@ -44,31 +44,7 @@
     <t>PETR4.SA</t>
   </si>
   <si>
-    <t>BBAS3.SA</t>
-  </si>
-  <si>
-    <t>BBSE3.SA</t>
-  </si>
-  <si>
-    <t>CXSE3.SA</t>
-  </si>
-  <si>
-    <t>GOAU4.SA</t>
-  </si>
-  <si>
-    <t>TAEE11.SA</t>
-  </si>
-  <si>
-    <t>USIM5.SA</t>
-  </si>
-  <si>
     <t>VALE3.SA</t>
-  </si>
-  <si>
-    <t>VBBR3.SA</t>
-  </si>
-  <si>
-    <t>WEGE3.SA</t>
   </si>
 </sst>
 </file>
@@ -119,17 +95,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24CFC974-B77E-412D-9D76-B83BB765E975}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,73 +450,32 @@
     <col min="1" max="1" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
